--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8882341B-4697-4183-8A24-D15EF06E3577}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
   <si>
     <t>stf_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>stf_R (operated)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,15 +940,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99F533-89CE-4002-A23E-0EB847934D80}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -932,18 +956,30 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -951,21 +987,33 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -973,27 +1021,48 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1001,18 +1070,30 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1020,15 +1101,24 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1036,21 +1126,36 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1058,21 +1163,36 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1080,18 +1200,30 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1099,21 +1231,36 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1121,16 +1268,27 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f>35+65</f>
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8882341B-4697-4183-8A24-D15EF06E3577}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10BFD0DB-80F1-4B37-AABA-A359C05374D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
@@ -943,7 +943,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -973,7 +973,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>22</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>70</v>

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{10BFD0DB-80F1-4B37-AABA-A359C05374D7}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BFD0DB-80F1-4B37-AABA-A359C05374D7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
@@ -17,10 +17,21 @@
     <sheet name="Muscles(L)" sheetId="2" r:id="rId2"/>
     <sheet name="Tendons(L)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -206,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,9 +519,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>23</v>
       </c>
@@ -553,7 +564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -576,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>29</v>
       </c>
@@ -596,7 +607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -619,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>28</v>
       </c>
@@ -639,7 +650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -656,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>20</v>
       </c>
@@ -670,7 +681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -687,7 +698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -716,9 +727,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -732,12 +743,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -754,12 +765,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -782,12 +793,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -801,12 +812,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -817,12 +828,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>218</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -839,12 +850,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -861,12 +872,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -880,12 +891,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -902,12 +913,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -921,12 +932,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -943,12 +954,12 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -971,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>7</v>
       </c>
@@ -979,7 +990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1062,7 +1073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>4</v>
       </c>
@@ -1093,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>7</v>
       </c>
@@ -1118,7 +1129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>7</v>
       </c>
@@ -1155,7 +1166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>7</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>7</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1249,7 +1260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1260,7 +1271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1283,7 +1294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>27</v>
       </c>

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BFD0DB-80F1-4B37-AABA-A359C05374D7}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0C4B86-F625-4300-80BF-84AEF368B8C5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ligaments" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tendons(L)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -217,9 +218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +258,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +364,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,9 +520,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>23</v>
       </c>
@@ -564,7 +565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -587,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>29</v>
       </c>
@@ -607,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -630,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>28</v>
       </c>
@@ -650,7 +651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -667,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>20</v>
       </c>
@@ -681,7 +682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -698,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -723,13 +724,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC300D97-1AF3-46AE-9AA4-448FF1ABE50C}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -743,12 +744,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -765,12 +772,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -793,12 +800,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>260</v>
+      </c>
+      <c r="D8">
+        <v>263</v>
+      </c>
+      <c r="E8">
+        <v>258</v>
+      </c>
+      <c r="F8">
         <v>257</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -812,12 +834,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -828,12 +856,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>218</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -850,12 +881,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>173</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>152</v>
+      </c>
+      <c r="E17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -872,12 +912,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -891,12 +931,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -913,12 +953,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="C26">
+        <v>220</v>
+      </c>
+      <c r="D26">
+        <v>214</v>
+      </c>
+      <c r="E26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -932,12 +981,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>227</v>
+      </c>
+      <c r="D29">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -953,13 +1008,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99F533-89CE-4002-A23E-0EB847934D80}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -982,7 +1037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>7</v>
       </c>
@@ -990,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1071,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>7</v>
       </c>
@@ -1024,7 +1079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +1120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1073,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>4</v>
       </c>
@@ -1104,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>7</v>
       </c>
@@ -1129,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
@@ -1166,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>7</v>
       </c>
@@ -1203,7 +1258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1226,7 +1281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -1234,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1260,7 +1315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1271,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>27</v>
       </c>

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -8,31 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA0C4B86-F625-4300-80BF-84AEF368B8C5}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9EA5B4-3EA9-4532-A9D5-8C323CD852B4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ligaments" sheetId="1" r:id="rId1"/>
-    <sheet name="Muscles(L)" sheetId="2" r:id="rId2"/>
-    <sheet name="Tendons(L)" sheetId="3" r:id="rId3"/>
+    <sheet name="ligament" sheetId="1" r:id="rId1"/>
+    <sheet name="total muscle length (L)" sheetId="2" r:id="rId2"/>
+    <sheet name="tendon length (L)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -725,7 +713,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,7 +902,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>155</v>
+      </c>
+      <c r="E20">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -933,7 +930,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9EA5B4-3EA9-4532-A9D5-8C323CD852B4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D2487B-A75A-479A-AF4C-56D7E2FD1DAD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
@@ -713,7 +713,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>133</v>
+      </c>
+      <c r="E5">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Tokyo Tech\Project\Dog Robot\Hoshiramu_robot\muscle_length_determination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/muscle_length_determination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{9279C57E-5F5A-4B6C-9BAB-94F8C0316C59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6D2487B-A75A-479A-AF4C-56D7E2FD1DAD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{EDCC1B19-14B4-43E2-AB13-A0D7AD64139A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="ligament" sheetId="1" r:id="rId1"/>
-    <sheet name="total muscle length (L)" sheetId="2" r:id="rId2"/>
-    <sheet name="tendon length (L)" sheetId="3" r:id="rId3"/>
+    <sheet name="total muscle length(L)" sheetId="2" r:id="rId2"/>
+    <sheet name="tendon length(L)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>stf_L</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,23 +121,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
+    <t>3D printed component = 6.5 + 12.1 = 18.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patella_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Femur - Tibia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +164,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,8 +195,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC8FC48-2A44-4C9B-91E0-2BDEBB0D28BE}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +675,7 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>27</v>
@@ -699,6 +713,26 @@
       </c>
       <c r="E14">
         <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC300D97-1AF3-46AE-9AA4-448FF1ABE50C}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,6 +1041,11 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1018,15 +1057,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99F533-89CE-4002-A23E-0EB847934D80}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1036,28 +1078,16 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1067,31 +1097,16 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1101,46 +1116,16 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1150,28 +1135,16 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1181,22 +1154,16 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1206,34 +1173,16 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1243,34 +1192,16 @@
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1280,28 +1211,16 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1311,34 +1230,16 @@
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>22</v>
-      </c>
-      <c r="I26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1348,25 +1249,38 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/muscle_length_determination/ligament_and_muscle_lengths.xlsx
+++ b/muscle_length_determination/ligament_and_muscle_lengths.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a4f506518823dc09/Tokyo Tech/Project/Dog Robot/Hoshiramu_robot/muscle_length_determination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoshiramu_robot\muscle_length_determination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EDCC1B19-14B4-43E2-AB13-A0D7AD64139A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2" xr2:uid="{26156378-0049-4A8B-8CB0-3F3BBDC12CF9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ligament" sheetId="1" r:id="rId1"/>
     <sheet name="total muscle length(L)" sheetId="2" r:id="rId2"/>
     <sheet name="tendon length(L)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,19 +147,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -204,7 +203,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,14 +514,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC8FC48-2A44-4C9B-91E0-2BDEBB0D28BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -715,7 +714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -743,14 +742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC300D97-1AF3-46AE-9AA4-448FF1ABE50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -914,16 +913,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C17">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D17">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="E17">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -945,16 +944,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C20">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D20">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="E20">
-        <v>160</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -973,13 +972,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D23">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1056,14 +1055,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB99F533-89CE-4002-A23E-0EB847934D80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1258,7 +1257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
